--- a/assets/misc/2023/2023_Attendance.xlsx
+++ b/assets/misc/2023/2023_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B809760-28B0-4F51-A6CD-B1AEEFCC2BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FDFF40-DCE7-4B10-B08B-35806D14653F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="1215" windowWidth="23820" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26790" yWindow="2040" windowWidth="23820" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,14 +498,17 @@
         <v>44982</v>
       </c>
       <c r="D3">
-        <v>150</v>
+        <v>140</v>
+      </c>
+      <c r="E3">
+        <v>82</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F16" si="0">IF(D3=0,0,+(D3-E3)/D3)</f>
-        <v>1</v>
+        <v>0.41428571428571431</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">

--- a/assets/misc/2023/2023_Attendance.xlsx
+++ b/assets/misc/2023/2023_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FDFF40-DCE7-4B10-B08B-35806D14653F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF8BEAC-1DE4-4220-BA2A-8F45BAAFD83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26790" yWindow="2040" windowWidth="23820" windowHeight="13710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1035" windowWidth="25815" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Event</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>SQL Saturday Denver 2023</t>
+  </si>
+  <si>
+    <t>Recordings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Saturday Boston 2023 </t>
+  </si>
+  <si>
+    <t>SQL Saturday Columbus</t>
+  </si>
+  <si>
+    <t>SQL Saturday SLC</t>
   </si>
 </sst>
 </file>
@@ -427,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +455,7 @@
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -465,8 +477,11 @@
       <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -487,7 +502,7 @@
         <v>0.28813559322033899</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -511,7 +526,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -532,7 +547,7 @@
         <v>0.26267281105990781</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -542,12 +557,18 @@
       <c r="C5" s="1">
         <v>45003</v>
       </c>
+      <c r="D5">
+        <v>236</v>
+      </c>
+      <c r="E5">
+        <v>106</v>
+      </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.55084745762711862</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -557,12 +578,18 @@
       <c r="C6" s="1">
         <v>45017</v>
       </c>
+      <c r="E6">
+        <v>280</v>
+      </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -577,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -592,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -607,7 +634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -622,7 +649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -637,7 +664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -652,28 +679,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="F16" s="2">
         <f t="shared" si="0"/>

--- a/assets/misc/2023/2023_Attendance.xlsx
+++ b/assets/misc/2023/2023_Attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF8BEAC-1DE4-4220-BA2A-8F45BAAFD83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5B5C53-09E0-4C45-87DC-EFB516D89558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1035" windowWidth="25815" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23430" yWindow="0" windowWidth="20880" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Event</t>
   </si>
@@ -101,7 +101,19 @@
     <t>SQL Saturday Columbus</t>
   </si>
   <si>
-    <t>SQL Saturday SLC</t>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>felt free tier was abused by attendees</t>
+  </si>
+  <si>
+    <t>not sure of final count but at least 272.</t>
+  </si>
+  <si>
+    <t>Ohio North SQL Saturday (Cleveland) 2023</t>
+  </si>
+  <si>
+    <t>200 at last count on YT</t>
   </si>
 </sst>
 </file>
@@ -439,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,7 +467,7 @@
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -480,8 +492,11 @@
       <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -502,7 +517,7 @@
         <v>0.28813559322033899</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -519,14 +534,14 @@
         <v>82</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F16" si="0">IF(D3=0,0,+(D3-E3)/D3)</f>
+        <f t="shared" ref="F3:F17" si="0">IF(D3=0,0,+(D3-E3)/D3)</f>
         <v>0.41428571428571431</v>
       </c>
       <c r="G3">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -547,7 +562,7 @@
         <v>0.26267281105990781</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -568,7 +583,7 @@
         <v>0.55084745762711862</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -589,7 +604,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -599,12 +614,24 @@
       <c r="C7" s="1">
         <v>45045</v>
       </c>
+      <c r="D7">
+        <v>135</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.62962962962962965</v>
+      </c>
+      <c r="H7">
+        <v>200</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -614,12 +641,21 @@
       <c r="C8" s="1">
         <v>45052</v>
       </c>
+      <c r="D8">
+        <v>532</v>
+      </c>
+      <c r="E8">
+        <v>272</v>
+      </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.48872180451127817</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -629,69 +665,80 @@
       <c r="C9" s="1">
         <v>45052</v>
       </c>
+      <c r="D9">
+        <v>300</v>
+      </c>
+      <c r="E9">
+        <v>150</v>
+      </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>1055</v>
+      </c>
+      <c r="C10" s="1">
+        <v>45066</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1053</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C11" s="1">
         <v>45080</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1051</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <v>45101</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>1056</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <v>45192</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>19</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
       </c>
       <c r="C14" s="1"/>
       <c r="F14" s="2">
@@ -699,9 +746,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1"/>
       <c r="F15" s="2">
@@ -709,22 +756,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
     </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F18">
-    <sortCondition ref="C2:C18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
+    <sortCondition ref="C2:C19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/misc/2023/2023_Attendance.xlsx
+++ b/assets/misc/2023/2023_Attendance.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\way0u\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5B5C53-09E0-4C45-87DC-EFB516D89558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECAA66C-E38B-42EC-AC00-C91ADC792BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23430" yWindow="0" windowWidth="20880" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Event</t>
   </si>
@@ -114,6 +103,9 @@
   </si>
   <si>
     <t>200 at last count on YT</t>
+  </si>
+  <si>
+    <t>SQL Saturday Los Angeles 2023</t>
   </si>
 </sst>
 </file>
@@ -454,20 +446,20 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -496,7 +488,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -517,7 +509,7 @@
         <v>0.28813559322033899</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -541,7 +533,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -562,7 +554,7 @@
         <v>0.26267281105990781</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -583,7 +575,7 @@
         <v>0.55084745762711862</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -604,7 +596,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -631,7 +623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -655,7 +647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -679,7 +671,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -689,9 +681,18 @@
       <c r="C10" s="1">
         <v>45066</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>100</v>
+      </c>
+      <c r="E10">
+        <v>70</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -701,12 +702,15 @@
       <c r="C11" s="1">
         <v>45080</v>
       </c>
+      <c r="E11">
+        <v>120</v>
+      </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -721,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -736,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -746,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -756,24 +760,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>1049</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45087</v>
+      </c>
+      <c r="D16">
+        <v>257</v>
+      </c>
+      <c r="E16">
+        <v>135</v>
+      </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+        <v>0.47470817120622566</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
       <c r="F19" s="2"/>
     </row>
   </sheetData>

--- a/assets/misc/2023/2023_Attendance.xlsx
+++ b/assets/misc/2023/2023_Attendance.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\way0u\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECAA66C-E38B-42EC-AC00-C91ADC792BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D2388B-8857-4265-85BF-12B427ED3E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="510" windowWidth="24585" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Event</t>
   </si>
@@ -106,6 +117,15 @@
   </si>
   <si>
     <t>SQL Saturday Los Angeles 2023</t>
+  </si>
+  <si>
+    <t>SQL Saturday Baton Rouge 2023</t>
+  </si>
+  <si>
+    <t>SQL Saturday ICA 2023</t>
+  </si>
+  <si>
+    <t>Charge For Lunch</t>
   </si>
 </sst>
 </file>
@@ -443,23 +463,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.81640625" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -485,10 +505,13 @@
         <v>18</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -509,7 +532,7 @@
         <v>0.28813559322033899</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -526,14 +549,14 @@
         <v>82</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F17" si="0">IF(D3=0,0,+(D3-E3)/D3)</f>
+        <f t="shared" ref="F3:F18" si="0">IF(D3=0,0,+(D3-E3)/D3)</f>
         <v>0.41428571428571431</v>
       </c>
       <c r="G3">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -554,7 +577,7 @@
         <v>0.26267281105990781</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -575,7 +598,7 @@
         <v>0.55084745762711862</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -596,7 +619,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -619,11 +642,11 @@
       <c r="H7">
         <v>200</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -643,11 +666,11 @@
         <f t="shared" si="0"/>
         <v>0.48872180451127817</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -667,11 +690,11 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -692,7 +715,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -710,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -725,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -740,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -750,17 +773,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="B15">
+        <v>1058</v>
+      </c>
+      <c r="C15" s="1">
+        <v>45122</v>
+      </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -781,17 +809,49 @@
         <v>0.47470817120622566</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="C17" s="1"/>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>1060</v>
+      </c>
+      <c r="C17" s="1">
+        <v>45135</v>
+      </c>
+      <c r="D17">
+        <v>320</v>
+      </c>
+      <c r="E17">
+        <v>208</v>
+      </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>1051</v>
+      </c>
+      <c r="C18" s="1">
+        <v>45101</v>
+      </c>
+      <c r="D18">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>57</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
     </row>
   </sheetData>

--- a/assets/misc/2023/2023_Attendance.xlsx
+++ b/assets/misc/2023/2023_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D2388B-8857-4265-85BF-12B427ED3E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3346AC75-7443-4953-9C54-B67DE3734579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="510" windowWidth="24585" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="720" windowWidth="24585" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Event</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>Charge For Lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Saturday Minnesota 2023 </t>
+  </si>
+  <si>
+    <t>SQL Saturday Bangladesh 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Saturday Belo Horizonte 2023 </t>
+  </si>
+  <si>
+    <t>SQL Saturday Oregon and SW Washington 2023</t>
   </si>
 </sst>
 </file>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +561,7 @@
         <v>82</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F18" si="0">IF(D3=0,0,+(D3-E3)/D3)</f>
+        <f>IF(D3=0,0,+(D3-E3)/D3)</f>
         <v>0.41428571428571431</v>
       </c>
       <c r="G3">
@@ -573,7 +585,7 @@
         <v>320</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(D4=0,0,+(D4-E4)/D4)</f>
         <v>0.26267281105990781</v>
       </c>
     </row>
@@ -594,7 +606,7 @@
         <v>106</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(D5=0,0,+(D5-E5)/D5)</f>
         <v>0.55084745762711862</v>
       </c>
     </row>
@@ -612,7 +624,7 @@
         <v>280</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(D6=0,0,+(D6-E6)/D6)</f>
         <v>0</v>
       </c>
       <c r="H6">
@@ -636,7 +648,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(D7=0,0,+(D7-E7)/D7)</f>
         <v>0.62962962962962965</v>
       </c>
       <c r="H7">
@@ -663,7 +675,7 @@
         <v>272</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(D8=0,0,+(D8-E8)/D8)</f>
         <v>0.48872180451127817</v>
       </c>
       <c r="J8" t="s">
@@ -687,7 +699,7 @@
         <v>150</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(D9=0,0,+(D9-E9)/D9)</f>
         <v>0.5</v>
       </c>
       <c r="J9" t="s">
@@ -711,7 +723,7 @@
         <v>70</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(D10=0,0,+(D10-E10)/D10)</f>
         <v>0.3</v>
       </c>
     </row>
@@ -729,48 +741,65 @@
         <v>120</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(D11=0,0,+(D11-E11)/D11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C12" s="1">
-        <v>45101</v>
+        <v>45087</v>
+      </c>
+      <c r="D12">
+        <v>257</v>
+      </c>
+      <c r="E12">
+        <v>135</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(D12=0,0,+(D12-E12)/D12)</f>
+        <v>0.47470817120622566</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C13" s="1">
-        <v>45192</v>
+        <v>45101</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(D13=0,0,+(D13-E13)/D13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>1051</v>
+      </c>
+      <c r="C14" s="1">
+        <v>45101</v>
+      </c>
+      <c r="D14">
+        <v>72</v>
+      </c>
+      <c r="E14">
+        <v>57</v>
+      </c>
       <c r="F14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(D14=0,0,+(D14-E14)/D14)</f>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -783,80 +812,127 @@
       <c r="C15" s="1">
         <v>45122</v>
       </c>
+      <c r="D15">
+        <v>170</v>
+      </c>
+      <c r="E15">
+        <v>85</v>
+      </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(D15=0,0,+(D15-E15)/D15)</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16">
-        <v>1049</v>
+        <v>1060</v>
       </c>
       <c r="C16" s="1">
-        <v>45087</v>
+        <v>45135</v>
       </c>
       <c r="D16">
-        <v>257</v>
+        <v>320</v>
       </c>
       <c r="E16">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="0"/>
-        <v>0.47470817120622566</v>
+        <f>IF(D16=0,0,+(D16-E16)/D16)</f>
+        <v>0.35</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C17" s="1">
-        <v>45135</v>
-      </c>
-      <c r="D17">
-        <v>320</v>
-      </c>
-      <c r="E17">
-        <v>208</v>
+        <v>45157</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>0.35</v>
+        <f>IF(D17=0,0,+(D17-E17)/D17)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="C18" s="1">
-        <v>45101</v>
-      </c>
-      <c r="D18">
-        <v>72</v>
-      </c>
-      <c r="E18">
-        <v>57</v>
+        <v>45192</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="0"/>
-        <v>0.20833333333333334</v>
+        <f>IF(D18=0,0,+(D18-E18)/D18)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="2"/>
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>1054</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45199</v>
+      </c>
+      <c r="F19" s="2">
+        <f>IF(D19=0,0,+(D19-E19)/D19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1046</v>
+      </c>
+      <c r="C20" s="1">
+        <v>45213</v>
+      </c>
+      <c r="F20" s="2">
+        <f>IF(D20=0,0,+(D20-E20)/D20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>1063</v>
+      </c>
+      <c r="C21" s="1">
+        <v>45220</v>
+      </c>
+      <c r="F21" s="2">
+        <f>IF(D21=0,0,+(D21-E21)/D21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>1057</v>
+      </c>
+      <c r="C22" s="1">
+        <v>45241</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F19">
-    <sortCondition ref="C2:C19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J20">
+    <sortCondition ref="C2:C20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/misc/2023/2023_Attendance.xlsx
+++ b/assets/misc/2023/2023_Attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3346AC75-7443-4953-9C54-B67DE3734579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7942DA-FD43-4512-9F7F-A471B3E59FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="720" windowWidth="24585" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20670" yWindow="975" windowWidth="18480" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +540,7 @@
         <v>84</v>
       </c>
       <c r="F2" s="2">
-        <f>IF(D2=0,0,+(D2-E2)/D2)</f>
+        <f t="shared" ref="F2:F21" si="0">IF(D2=0,0,+(D2-E2)/D2)</f>
         <v>0.28813559322033899</v>
       </c>
     </row>
@@ -561,7 +561,7 @@
         <v>82</v>
       </c>
       <c r="F3" s="2">
-        <f>IF(D3=0,0,+(D3-E3)/D3)</f>
+        <f t="shared" si="0"/>
         <v>0.41428571428571431</v>
       </c>
       <c r="G3">
@@ -585,7 +585,7 @@
         <v>320</v>
       </c>
       <c r="F4" s="2">
-        <f>IF(D4=0,0,+(D4-E4)/D4)</f>
+        <f t="shared" si="0"/>
         <v>0.26267281105990781</v>
       </c>
     </row>
@@ -606,7 +606,7 @@
         <v>106</v>
       </c>
       <c r="F5" s="2">
-        <f>IF(D5=0,0,+(D5-E5)/D5)</f>
+        <f t="shared" si="0"/>
         <v>0.55084745762711862</v>
       </c>
     </row>
@@ -624,7 +624,7 @@
         <v>280</v>
       </c>
       <c r="F6" s="2">
-        <f>IF(D6=0,0,+(D6-E6)/D6)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6">
@@ -648,7 +648,7 @@
         <v>50</v>
       </c>
       <c r="F7" s="2">
-        <f>IF(D7=0,0,+(D7-E7)/D7)</f>
+        <f t="shared" si="0"/>
         <v>0.62962962962962965</v>
       </c>
       <c r="H7">
@@ -675,7 +675,7 @@
         <v>272</v>
       </c>
       <c r="F8" s="2">
-        <f>IF(D8=0,0,+(D8-E8)/D8)</f>
+        <f t="shared" si="0"/>
         <v>0.48872180451127817</v>
       </c>
       <c r="J8" t="s">
@@ -699,7 +699,7 @@
         <v>150</v>
       </c>
       <c r="F9" s="2">
-        <f>IF(D9=0,0,+(D9-E9)/D9)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="J9" t="s">
@@ -723,7 +723,7 @@
         <v>70</v>
       </c>
       <c r="F10" s="2">
-        <f>IF(D10=0,0,+(D10-E10)/D10)</f>
+        <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
     </row>
@@ -741,7 +741,7 @@
         <v>120</v>
       </c>
       <c r="F11" s="2">
-        <f>IF(D11=0,0,+(D11-E11)/D11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -762,7 +762,7 @@
         <v>135</v>
       </c>
       <c r="F12" s="2">
-        <f>IF(D12=0,0,+(D12-E12)/D12)</f>
+        <f t="shared" si="0"/>
         <v>0.47470817120622566</v>
       </c>
     </row>
@@ -777,7 +777,7 @@
         <v>45101</v>
       </c>
       <c r="F13" s="2">
-        <f>IF(D13=0,0,+(D13-E13)/D13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -798,7 +798,7 @@
         <v>57</v>
       </c>
       <c r="F14" s="2">
-        <f>IF(D14=0,0,+(D14-E14)/D14)</f>
+        <f t="shared" si="0"/>
         <v>0.20833333333333334</v>
       </c>
     </row>
@@ -819,7 +819,7 @@
         <v>85</v>
       </c>
       <c r="F15" s="2">
-        <f>IF(D15=0,0,+(D15-E15)/D15)</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
     </row>
@@ -840,7 +840,7 @@
         <v>208</v>
       </c>
       <c r="F16" s="2">
-        <f>IF(D16=0,0,+(D16-E16)/D16)</f>
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
     </row>
@@ -855,7 +855,7 @@
         <v>45157</v>
       </c>
       <c r="F17" s="2">
-        <f>IF(D17=0,0,+(D17-E17)/D17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -869,9 +869,15 @@
       <c r="C18" s="1">
         <v>45192</v>
       </c>
+      <c r="D18">
+        <v>200</v>
+      </c>
+      <c r="E18">
+        <v>85</v>
+      </c>
       <c r="F18" s="2">
-        <f>IF(D18=0,0,+(D18-E18)/D18)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -885,7 +891,7 @@
         <v>45199</v>
       </c>
       <c r="F19" s="2">
-        <f>IF(D19=0,0,+(D19-E19)/D19)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -900,7 +906,7 @@
         <v>45213</v>
       </c>
       <c r="F20" s="2">
-        <f>IF(D20=0,0,+(D20-E20)/D20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -915,7 +921,7 @@
         <v>45220</v>
       </c>
       <c r="F21" s="2">
-        <f>IF(D21=0,0,+(D21-E21)/D21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/assets/misc/2023/2023_Attendance.xlsx
+++ b/assets/misc/2023/2023_Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7942DA-FD43-4512-9F7F-A471B3E59FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C27C29-D832-4A91-AC07-AEAB5F7A79D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20670" yWindow="975" windowWidth="18480" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Event</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>SQL Saturday Oregon and SW Washington 2023</t>
+  </si>
+  <si>
+    <t>SQL Saturday Orlando 2023</t>
+  </si>
+  <si>
+    <t>Precon 37</t>
   </si>
 </sst>
 </file>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +546,7 @@
         <v>84</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F21" si="0">IF(D2=0,0,+(D2-E2)/D2)</f>
+        <f t="shared" ref="F2:F23" si="0">IF(D2=0,0,+(D2-E2)/D2)</f>
         <v>0.28813559322033899</v>
       </c>
     </row>
@@ -844,7 +850,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -859,7 +865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -880,7 +886,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -895,7 +901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -905,12 +911,15 @@
       <c r="C20" s="1">
         <v>45213</v>
       </c>
+      <c r="E20">
+        <v>161</v>
+      </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -925,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -934,6 +943,34 @@
       </c>
       <c r="C22" s="1">
         <v>45241</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>1047</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45213</v>
+      </c>
+      <c r="D23">
+        <v>327</v>
+      </c>
+      <c r="E23">
+        <v>170</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.4801223241590214</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/assets/misc/2023/2023_Attendance.xlsx
+++ b/assets/misc/2023/2023_Attendance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C27C29-D832-4A91-AC07-AEAB5F7A79D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8881F0-9254-46F4-A809-FC04F5E673CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20670" yWindow="975" windowWidth="18480" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Event</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>Precon 37</t>
+  </si>
+  <si>
+    <t>precon 56</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,12 +914,18 @@
       <c r="C20" s="1">
         <v>45213</v>
       </c>
+      <c r="D20">
+        <v>254</v>
+      </c>
       <c r="E20">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.27559055118110237</v>
+      </c>
+      <c r="J20" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">

--- a/assets/misc/2023/2023_Attendance.xlsx
+++ b/assets/misc/2023/2023_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8881F0-9254-46F4-A809-FC04F5E673CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC13847-4EAD-4E76-9698-DDD5C69701C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20670" yWindow="975" windowWidth="18480" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23475" yWindow="915" windowWidth="18480" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Event</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>SQL Saturday South Florida 2023</t>
-  </si>
-  <si>
-    <t>SQL Saturday Ica 2023</t>
   </si>
   <si>
     <t>SQL Saturday Denver 2023</t>
@@ -484,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,13 +520,13 @@
         <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -549,7 +546,7 @@
         <v>84</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F23" si="0">IF(D2=0,0,+(D2-E2)/D2)</f>
+        <f t="shared" ref="F2:F22" si="0">IF(D2=0,0,+(D2-E2)/D2)</f>
         <v>0.28813559322033899</v>
       </c>
     </row>
@@ -664,7 +661,7 @@
         <v>200</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -688,7 +685,7 @@
         <v>0.48872180451127817</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -712,12 +709,12 @@
         <v>0.5</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <v>1055</v>
@@ -756,7 +753,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12">
         <v>1049</v>
@@ -777,7 +774,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>1051</v>
@@ -785,147 +782,147 @@
       <c r="C13" s="1">
         <v>45101</v>
       </c>
+      <c r="D13">
+        <v>72</v>
+      </c>
+      <c r="E13">
+        <v>57</v>
+      </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>1051</v>
+        <v>1058</v>
       </c>
       <c r="C14" s="1">
-        <v>45101</v>
+        <v>45122</v>
       </c>
       <c r="D14">
-        <v>72</v>
+        <v>170</v>
       </c>
       <c r="E14">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>0.20833333333333334</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="C15" s="1">
-        <v>45122</v>
+        <v>45135</v>
       </c>
       <c r="D15">
-        <v>170</v>
+        <v>320</v>
       </c>
       <c r="E15">
-        <v>85</v>
+        <v>208</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="C16" s="1">
-        <v>45135</v>
-      </c>
-      <c r="D16">
-        <v>320</v>
-      </c>
-      <c r="E16">
-        <v>208</v>
+        <v>45157</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>0.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="C17" s="1">
-        <v>45157</v>
+        <v>45192</v>
+      </c>
+      <c r="D17">
+        <v>200</v>
+      </c>
+      <c r="E17">
+        <v>85</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C18" s="1">
-        <v>45192</v>
-      </c>
-      <c r="D18">
-        <v>200</v>
-      </c>
-      <c r="E18">
-        <v>85</v>
+        <v>45199</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>0.57499999999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="C19" s="1">
-        <v>45199</v>
+        <v>45213</v>
+      </c>
+      <c r="D19">
+        <v>254</v>
+      </c>
+      <c r="E19">
+        <v>184</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.27559055118110237</v>
+      </c>
+      <c r="J19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>1046</v>
+        <v>1063</v>
       </c>
       <c r="C20" s="1">
-        <v>45213</v>
-      </c>
-      <c r="D20">
-        <v>254</v>
-      </c>
-      <c r="E20">
-        <v>184</v>
+        <v>45220</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0.27559055118110237</v>
-      </c>
-      <c r="J20" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -933,10 +930,10 @@
         <v>32</v>
       </c>
       <c r="B21">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="C21" s="1">
-        <v>45220</v>
+        <v>45241</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
@@ -948,43 +945,28 @@
         <v>33</v>
       </c>
       <c r="B22">
-        <v>1057</v>
+        <v>1047</v>
       </c>
       <c r="C22" s="1">
-        <v>45241</v>
+        <v>45213</v>
+      </c>
+      <c r="D22">
+        <v>327</v>
+      </c>
+      <c r="E22">
+        <v>170</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+        <v>0.4801223241590214</v>
+      </c>
+      <c r="J22" t="s">
         <v>34</v>
       </c>
-      <c r="B23">
-        <v>1047</v>
-      </c>
-      <c r="C23" s="1">
-        <v>45213</v>
-      </c>
-      <c r="D23">
-        <v>327</v>
-      </c>
-      <c r="E23">
-        <v>170</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="0"/>
-        <v>0.4801223241590214</v>
-      </c>
-      <c r="J23" t="s">
-        <v>35</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J20">
-    <sortCondition ref="C2:C20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J19">
+    <sortCondition ref="C2:C19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/assets/misc/2023/2023_Attendance.xlsx
+++ b/assets/misc/2023/2023_Attendance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC13847-4EAD-4E76-9698-DDD5C69701C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E02CEDA-1465-4B6A-8851-76CC0603B5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23475" yWindow="915" windowWidth="18480" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24765" yWindow="435" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Event</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>precon 56</t>
+  </si>
+  <si>
+    <t>SQL Saturday Silicon Valley 2023</t>
+  </si>
+  <si>
+    <t>SQL Saturday Toronto 2023</t>
+  </si>
+  <si>
+    <t>SQL Saturday Vitoria</t>
   </si>
 </sst>
 </file>
@@ -481,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +555,7 @@
         <v>84</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F22" si="0">IF(D2=0,0,+(D2-E2)/D2)</f>
+        <f t="shared" ref="F2:F25" si="0">IF(D2=0,0,+(D2-E2)/D2)</f>
         <v>0.28813559322033899</v>
       </c>
     </row>
@@ -920,9 +929,15 @@
       <c r="C20" s="1">
         <v>45220</v>
       </c>
+      <c r="D20">
+        <v>900</v>
+      </c>
+      <c r="E20">
+        <v>400</v>
+      </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -962,6 +977,63 @@
       </c>
       <c r="J22" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>1066</v>
+      </c>
+      <c r="C23" s="1">
+        <v>45220</v>
+      </c>
+      <c r="D23">
+        <v>177</v>
+      </c>
+      <c r="E23">
+        <v>103</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.41807909604519772</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24">
+        <v>1064</v>
+      </c>
+      <c r="C24" s="1">
+        <v>45220</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>1065</v>
+      </c>
+      <c r="C25" s="1">
+        <v>45227</v>
+      </c>
+      <c r="D25">
+        <v>1184</v>
+      </c>
+      <c r="E25">
+        <v>468</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.60472972972972971</v>
       </c>
     </row>
   </sheetData>

--- a/assets/misc/2023/2023_Attendance.xlsx
+++ b/assets/misc/2023/2023_Attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E02CEDA-1465-4B6A-8851-76CC0603B5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E51BC9-BC7C-427F-82E5-F48FBE596845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24765" yWindow="435" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Event</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>SQL Saturday Vitoria</t>
+  </si>
+  <si>
+    <t>A number of in person registrations not counted in the reg total</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,9 +1013,18 @@
       <c r="C24" s="1">
         <v>45220</v>
       </c>
+      <c r="D24">
+        <v>189</v>
+      </c>
+      <c r="E24">
+        <v>165</v>
+      </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.12698412698412698</v>
+      </c>
+      <c r="J24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">

--- a/assets/misc/2023/2023_Attendance.xlsx
+++ b/assets/misc/2023/2023_Attendance.xlsx
@@ -1,35 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\way0u\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E51BC9-BC7C-427F-82E5-F48FBE596845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A019DF09-D3EF-4F1B-9754-64AE0C503CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -496,20 +485,20 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.40625" customWidth="1"/>
+    <col min="2" max="2" width="13.40625" customWidth="1"/>
+    <col min="3" max="3" width="12.86328125" customWidth="1"/>
+    <col min="4" max="4" width="14.86328125" customWidth="1"/>
+    <col min="5" max="5" width="16.26953125" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -541,7 +530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -562,7 +551,7 @@
         <v>0.28813559322033899</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -586,7 +575,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -607,7 +596,7 @@
         <v>0.26267281105990781</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -628,7 +617,7 @@
         <v>0.55084745762711862</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -649,7 +638,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -676,7 +665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -700,7 +689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -724,7 +713,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -745,7 +734,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -763,7 +752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -784,7 +773,7 @@
         <v>0.47470817120622566</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -805,7 +794,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -826,7 +815,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -847,7 +836,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -862,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -883,7 +872,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -893,12 +882,18 @@
       <c r="C18" s="1">
         <v>45199</v>
       </c>
+      <c r="D18">
+        <v>270</v>
+      </c>
+      <c r="E18">
+        <v>200</v>
+      </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.25925925925925924</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -922,7 +917,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -943,7 +938,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -958,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -982,7 +977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1003,7 +998,7 @@
         <v>0.41807909604519772</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1027,7 +1022,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>38</v>
       </c>

--- a/assets/misc/2023/2023_Attendance.xlsx
+++ b/assets/misc/2023/2023_Attendance.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\way0u\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A019DF09-D3EF-4F1B-9754-64AE0C503CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829E7D03-6FD0-4972-954A-A2268C82B14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25830" yWindow="1530" windowWidth="18030" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -485,20 +496,20 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.40625" customWidth="1"/>
-    <col min="2" max="2" width="13.40625" customWidth="1"/>
-    <col min="3" max="3" width="12.86328125" customWidth="1"/>
-    <col min="4" max="4" width="14.86328125" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -530,7 +541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -551,7 +562,7 @@
         <v>0.28813559322033899</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -575,7 +586,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -596,7 +607,7 @@
         <v>0.26267281105990781</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -617,7 +628,7 @@
         <v>0.55084745762711862</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -638,7 +649,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -665,7 +676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -689,7 +700,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -713,7 +724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -734,7 +745,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -752,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -773,7 +784,7 @@
         <v>0.47470817120622566</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -794,7 +805,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -815,7 +826,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -836,7 +847,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -851,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -872,7 +883,7 @@
         <v>0.57499999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -893,7 +904,7 @@
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -917,7 +928,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -938,7 +949,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -948,12 +959,18 @@
       <c r="C21" s="1">
         <v>45241</v>
       </c>
+      <c r="D21">
+        <v>331</v>
+      </c>
+      <c r="E21">
+        <v>266</v>
+      </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.75">
+        <v>0.19637462235649547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -964,20 +981,20 @@
         <v>45213</v>
       </c>
       <c r="D22">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E22">
         <v>170</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>0.4801223241590214</v>
+        <v>0.48640483383685801</v>
       </c>
       <c r="J22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -998,7 +1015,7 @@
         <v>0.41807909604519772</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1022,7 +1039,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>

--- a/assets/misc/2023/2023_Attendance.xlsx
+++ b/assets/misc/2023/2023_Attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829E7D03-6FD0-4972-954A-A2268C82B14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ABBC9B-9C3E-46AA-AF6A-B3F1F5B33DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25830" yWindow="1530" windowWidth="18030" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26745" yWindow="300" windowWidth="21615" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,6 +1060,12 @@
         <v>0.60472972972972971</v>
       </c>
     </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <f>SUM(E2:E25)</f>
+        <v>4060</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J19">
     <sortCondition ref="C2:C19"/>

--- a/assets/misc/2023/2023_Attendance.xlsx
+++ b/assets/misc/2023/2023_Attendance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\git\sqlsatwebsite\assets\misc\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ABBC9B-9C3E-46AA-AF6A-B3F1F5B33DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7054CA8-779E-42DB-A4CF-C275B3C1135F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26745" yWindow="300" windowWidth="21615" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="810" windowWidth="26070" windowHeight="14805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Event</t>
   </si>
@@ -496,7 +496,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
         <v>84</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F25" si="0">IF(D2=0,0,+(D2-E2)/D2)</f>
+        <f t="shared" ref="F2:F26" si="0">IF(D2=0,0,+(D2-E2)/D2)</f>
         <v>0.28813559322033899</v>
       </c>
     </row>
@@ -1060,10 +1060,31 @@
         <v>0.60472972972972971</v>
       </c>
     </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>1057</v>
+      </c>
+      <c r="C26" s="1">
+        <v>45241</v>
+      </c>
+      <c r="D26">
+        <v>331</v>
+      </c>
+      <c r="E26">
+        <v>266</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.19637462235649547</v>
+      </c>
+    </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E27">
-        <f>SUM(E2:E25)</f>
-        <v>4060</v>
+        <f>SUM(E2:E26)</f>
+        <v>4326</v>
       </c>
     </row>
   </sheetData>
